--- a/data/outputs/management_altmetric/68.xlsx
+++ b/data/outputs/management_altmetric/68.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE49"/>
+  <dimension ref="A1:CF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1292,6 +1300,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2047,6 +2064,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>9.85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2288,6 +2308,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2533,6 +2556,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3041,6 +3070,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3300,6 +3332,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3555,6 +3590,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3797,6 +3835,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -4037,6 +4078,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4296,6 +4340,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4555,6 +4602,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4814,6 +4864,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5065,6 +5118,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5316,6 +5372,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5571,6 +5630,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>6.55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5808,6 +5870,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6058,6 +6123,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="23">
@@ -6306,6 +6374,9 @@
       <c r="CE23" t="n">
         <v>1</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6565,6 +6636,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6814,6 +6888,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7059,6 +7136,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7306,6 +7386,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7547,6 +7630,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7797,6 +7883,9 @@
       </c>
       <c r="CE29" t="n">
         <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -8039,6 +8128,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8280,6 +8372,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8529,6 +8624,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8778,6 +8876,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9027,6 +9128,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9274,6 +9378,9 @@
       <c r="CE35" t="n">
         <v>1</v>
       </c>
+      <c r="CF35" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9523,6 +9630,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9784,6 +9894,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10027,6 +10140,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10268,6 +10384,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10527,6 +10646,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10770,6 +10892,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11019,6 +11144,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11264,6 +11392,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11511,6 +11642,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11750,6 +11884,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11997,6 +12134,9 @@
       <c r="CE46" t="n">
         <v>1</v>
       </c>
+      <c r="CF46" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12254,6 +12394,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12507,6 +12650,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12766,6 +12912,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
